--- a/brand_data_hackathon.xlsx
+++ b/brand_data_hackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regina\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B4ED58-6545-4358-9217-62A119268DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5352E-86FD-429B-965A-5409E451DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16862EFB-2D41-489E-A416-4615753F3809}"/>
   </bookViews>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Co2 emissions</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Emissions Intensity</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -141,6 +129,18 @@
   </si>
   <si>
     <t>McDonald’s</t>
+  </si>
+  <si>
+    <t>co2_emissions</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>emissions_intensity</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -515,28 +515,28 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D32"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>820000</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>15060000</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>27320</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>23110307</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>385695</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>307600</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>345480</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>269550</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>230730</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>184580</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>269550</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>184580</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>345480</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>345480</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>385695</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>385695</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>269550</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>184580</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>230730</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>184580</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>230730</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>269550</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>307600</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>269550</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>176420</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>115900</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>96250</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>345480</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>385695</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>770000</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>770000</v>

--- a/brand_data_hackathon.xlsx
+++ b/brand_data_hackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regina\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5352E-86FD-429B-965A-5409E451DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7EEC88-8AAE-4E0B-9BAA-969DE0D43A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16862EFB-2D41-489E-A416-4615753F3809}"/>
   </bookViews>
@@ -515,10 +515,13 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -587,7 +590,7 @@
         <v>10700</v>
       </c>
       <c r="D5">
-        <v>2159.84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,7 +632,7 @@
         <v>45000</v>
       </c>
       <c r="D8">
-        <v>7.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
         <v>30000</v>
       </c>
       <c r="D10">
-        <v>7.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,7 +716,7 @@
         <v>45000</v>
       </c>
       <c r="D14">
-        <v>7.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +744,7 @@
         <v>50000</v>
       </c>
       <c r="D16">
-        <v>7.69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +786,7 @@
         <v>24000</v>
       </c>
       <c r="D19">
-        <v>7.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>35000</v>
       </c>
       <c r="D23">
-        <v>7.69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,7 +884,7 @@
         <v>22920</v>
       </c>
       <c r="D26">
-        <v>7.69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +898,7 @@
         <v>15000</v>
       </c>
       <c r="D27">
-        <v>7.69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,7 +940,7 @@
         <v>50000</v>
       </c>
       <c r="D30">
-        <v>7.69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +954,7 @@
         <v>100000</v>
       </c>
       <c r="D31">
-        <v>7.69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
         <v>100000</v>
       </c>
       <c r="D32">
-        <v>7.69</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
